--- a/TCP/trabalhadores.xlsx
+++ b/TCP/trabalhadores.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39ffc30baf637d13/Documents/GitHub/PNAD-covid/TCP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_AD4D361C20488DEA4E38A031DC5A70005BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{815DEBAA-10D6-471C-B8B6-2101D0FD4DD4}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4D361C20488DEA4E38A031DC5A70005BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E015D0EE-5425-452D-B464-E252A30AA015}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="afastamento" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>01</t>
   </si>
@@ -247,6 +249,57 @@
   </si>
   <si>
     <t>descricao</t>
+  </si>
+  <si>
+    <t>Sem instrução</t>
+  </si>
+  <si>
+    <t>Fundamental incompleto</t>
+  </si>
+  <si>
+    <t>Fundamental completa</t>
+  </si>
+  <si>
+    <t>Médio incompleto</t>
+  </si>
+  <si>
+    <t>Médio completo</t>
+  </si>
+  <si>
+    <t>Superior incompleto</t>
+  </si>
+  <si>
+    <t>Superior completo</t>
+  </si>
+  <si>
+    <t>Pós-graduação, mestrado ou doutorado</t>
+  </si>
+  <si>
+    <t>Estava em quarentena, isolamento, distanciamento social ou férias coletivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Férias, folga ou jornada de trabalho variável </t>
+  </si>
+  <si>
+    <t>Licença maternidade ou paternidade</t>
+  </si>
+  <si>
+    <t>Licença remunerada por motivo de saúde ou acidente da própria pessoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outro tipo de licença remunerada (estudo, paternidade, casamento, licença prêmio, etc.) </t>
+  </si>
+  <si>
+    <t>Afastamento do próprio negócio/empresa por motivo de gestação, saúde, acidente, etc., sem ser remunerado por instituto de previdência</t>
+  </si>
+  <si>
+    <t>Fatores ocasionais (mau tempo, paralisação nos serviços de transportes, etc.)</t>
+  </si>
+  <si>
+    <t>Outro motivo</t>
+  </si>
+  <si>
+    <t>motivo</t>
   </si>
 </sst>
 </file>
@@ -569,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -878,4 +931,186 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE084CB-7C80-4B93-A357-1AFA49958881}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370BBF2A-FC13-4E1C-8FF7-6E3BB701CC16}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="115.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>